--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Il1a-Il1r2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Il1a-Il1r2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>Il1r2</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +534,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.3811681968902</v>
+        <v>4.072082666666667</v>
       </c>
       <c r="H2">
-        <v>3.3811681968902</v>
+        <v>12.216248</v>
       </c>
       <c r="I2">
-        <v>0.4155871612260688</v>
+        <v>0.3979924983064649</v>
       </c>
       <c r="J2">
-        <v>0.4155871612260688</v>
+        <v>0.3979924983064649</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.806839582923407</v>
+        <v>0.05504633333333334</v>
       </c>
       <c r="N2">
-        <v>0.806839582923407</v>
+        <v>0.165139</v>
       </c>
       <c r="O2">
-        <v>0.05796206975001117</v>
+        <v>0.002371469359192472</v>
       </c>
       <c r="P2">
-        <v>0.05796206975001117</v>
+        <v>0.002371469359192472</v>
       </c>
       <c r="Q2">
-        <v>2.728060337772777</v>
+        <v>0.2241532198302222</v>
       </c>
       <c r="R2">
-        <v>2.728060337772777</v>
+        <v>2.017378978472</v>
       </c>
       <c r="S2">
-        <v>0.02408829202619454</v>
+        <v>0.0009438270149222433</v>
       </c>
       <c r="T2">
-        <v>0.02408829202619454</v>
+        <v>0.0009438270149222434</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,55 +593,55 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.3811681968902</v>
+        <v>4.072082666666667</v>
       </c>
       <c r="H3">
-        <v>3.3811681968902</v>
+        <v>12.216248</v>
       </c>
       <c r="I3">
-        <v>0.4155871612260688</v>
+        <v>0.3979924983064649</v>
       </c>
       <c r="J3">
-        <v>0.4155871612260688</v>
+        <v>0.3979924983064649</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.82912147931623</v>
+        <v>1.016579</v>
       </c>
       <c r="N3">
-        <v>7.82912147931623</v>
+        <v>3.049737</v>
       </c>
       <c r="O3">
-        <v>0.5624316095415417</v>
+        <v>0.04379557735662424</v>
       </c>
       <c r="P3">
-        <v>0.5624316095415417</v>
+        <v>0.04379557735662425</v>
       </c>
       <c r="Q3">
-        <v>26.47157655545399</v>
+        <v>4.139593725197333</v>
       </c>
       <c r="R3">
-        <v>26.47157655545399</v>
+        <v>37.256343526776</v>
       </c>
       <c r="S3">
-        <v>0.2337393559931781</v>
+        <v>0.01743031124693692</v>
       </c>
       <c r="T3">
-        <v>0.2337393559931781</v>
+        <v>0.01743031124693693</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,55 +655,55 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.3811681968902</v>
+        <v>4.072082666666667</v>
       </c>
       <c r="H4">
-        <v>3.3811681968902</v>
+        <v>12.216248</v>
       </c>
       <c r="I4">
-        <v>0.4155871612260688</v>
+        <v>0.3979924983064649</v>
       </c>
       <c r="J4">
-        <v>0.4155871612260688</v>
+        <v>0.3979924983064649</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.84133868868903</v>
+        <v>8.671405</v>
       </c>
       <c r="N4">
-        <v>4.84133868868903</v>
+        <v>26.014215</v>
       </c>
       <c r="O4">
-        <v>0.3477940555921632</v>
+        <v>0.3735756773139306</v>
       </c>
       <c r="P4">
-        <v>0.3477940555921632</v>
+        <v>0.3735756773139307</v>
       </c>
       <c r="Q4">
-        <v>16.36938040456945</v>
+        <v>35.31067799614667</v>
       </c>
       <c r="R4">
-        <v>16.36938040456945</v>
+        <v>317.79610196532</v>
       </c>
       <c r="S4">
-        <v>0.1445387442548487</v>
+        <v>0.148680317120701</v>
       </c>
       <c r="T4">
-        <v>0.1445387442548487</v>
+        <v>0.148680317120701</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,60 +717,60 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.3811681968902</v>
+        <v>4.072082666666667</v>
       </c>
       <c r="H5">
-        <v>3.3811681968902</v>
+        <v>12.216248</v>
       </c>
       <c r="I5">
-        <v>0.4155871612260688</v>
+        <v>0.3979924983064649</v>
       </c>
       <c r="J5">
-        <v>0.4155871612260688</v>
+        <v>0.3979924983064649</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.442830886284326</v>
+        <v>12.91794</v>
       </c>
       <c r="N5">
-        <v>0.442830886284326</v>
+        <v>38.75382</v>
       </c>
       <c r="O5">
-        <v>0.03181226511628392</v>
+        <v>0.5565220613038737</v>
       </c>
       <c r="P5">
-        <v>0.03181226511628392</v>
+        <v>0.5565220613038738</v>
       </c>
       <c r="Q5">
-        <v>1.497285709305264</v>
+        <v>52.60291956304</v>
       </c>
       <c r="R5">
-        <v>1.497285709305264</v>
+        <v>473.42627606736</v>
       </c>
       <c r="S5">
-        <v>0.01322076895184753</v>
+        <v>0.2214916055409923</v>
       </c>
       <c r="T5">
-        <v>0.01322076895184753</v>
+        <v>0.2214916055409923</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
@@ -776,55 +779,55 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.75471402554191</v>
+        <v>4.072082666666667</v>
       </c>
       <c r="H6">
-        <v>4.75471402554191</v>
+        <v>12.216248</v>
       </c>
       <c r="I6">
-        <v>0.5844128387739312</v>
+        <v>0.3979924983064649</v>
       </c>
       <c r="J6">
-        <v>0.5844128387739312</v>
+        <v>0.3979924983064649</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.806839582923407</v>
+        <v>0.5509396666666667</v>
       </c>
       <c r="N6">
-        <v>0.806839582923407</v>
+        <v>1.652819</v>
       </c>
       <c r="O6">
-        <v>0.05796206975001117</v>
+        <v>0.02373521466637888</v>
       </c>
       <c r="P6">
-        <v>0.05796206975001117</v>
+        <v>0.02373521466637889</v>
       </c>
       <c r="Q6">
-        <v>3.836291481288308</v>
+        <v>2.243471867012444</v>
       </c>
       <c r="R6">
-        <v>3.836291481288308</v>
+        <v>20.191246803112</v>
       </c>
       <c r="S6">
-        <v>0.03387377772381663</v>
+        <v>0.009446437382912379</v>
       </c>
       <c r="T6">
-        <v>0.03387377772381663</v>
+        <v>0.009446437382912379</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,55 +841,55 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.75471402554191</v>
+        <v>6.159473666666667</v>
       </c>
       <c r="H7">
-        <v>4.75471402554191</v>
+        <v>18.478421</v>
       </c>
       <c r="I7">
-        <v>0.5844128387739312</v>
+        <v>0.6020075016935351</v>
       </c>
       <c r="J7">
-        <v>0.5844128387739312</v>
+        <v>0.6020075016935351</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>7.82912147931623</v>
+        <v>0.05504633333333334</v>
       </c>
       <c r="N7">
-        <v>7.82912147931623</v>
+        <v>0.165139</v>
       </c>
       <c r="O7">
-        <v>0.5624316095415417</v>
+        <v>0.002371469359192472</v>
       </c>
       <c r="P7">
-        <v>0.5624316095415417</v>
+        <v>0.002371469359192472</v>
       </c>
       <c r="Q7">
-        <v>37.2252337053763</v>
+        <v>0.3390564406132223</v>
       </c>
       <c r="R7">
-        <v>37.2252337053763</v>
+        <v>3.051507965519</v>
       </c>
       <c r="S7">
-        <v>0.3286922535483637</v>
+        <v>0.001427642344270229</v>
       </c>
       <c r="T7">
-        <v>0.3286922535483637</v>
+        <v>0.001427642344270229</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,55 +903,55 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.75471402554191</v>
+        <v>6.159473666666667</v>
       </c>
       <c r="H8">
-        <v>4.75471402554191</v>
+        <v>18.478421</v>
       </c>
       <c r="I8">
-        <v>0.5844128387739312</v>
+        <v>0.6020075016935351</v>
       </c>
       <c r="J8">
-        <v>0.5844128387739312</v>
+        <v>0.6020075016935351</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.84133868868903</v>
+        <v>1.016579</v>
       </c>
       <c r="N8">
-        <v>4.84133868868903</v>
+        <v>3.049737</v>
       </c>
       <c r="O8">
-        <v>0.3477940555921632</v>
+        <v>0.04379557735662424</v>
       </c>
       <c r="P8">
-        <v>0.3477940555921632</v>
+        <v>0.04379557735662425</v>
       </c>
       <c r="Q8">
-        <v>23.01918096550841</v>
+        <v>6.261591580586333</v>
       </c>
       <c r="R8">
-        <v>23.01918096550841</v>
+        <v>56.354324225277</v>
       </c>
       <c r="S8">
-        <v>0.2032553113373146</v>
+        <v>0.02636526610968732</v>
       </c>
       <c r="T8">
-        <v>0.2032553113373146</v>
+        <v>0.02636526610968732</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,55 +965,179 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.75471402554191</v>
+        <v>6.159473666666667</v>
       </c>
       <c r="H9">
-        <v>4.75471402554191</v>
+        <v>18.478421</v>
       </c>
       <c r="I9">
-        <v>0.5844128387739312</v>
+        <v>0.6020075016935351</v>
       </c>
       <c r="J9">
-        <v>0.5844128387739312</v>
+        <v>0.6020075016935351</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.442830886284326</v>
+        <v>8.671405</v>
       </c>
       <c r="N9">
-        <v>0.442830886284326</v>
+        <v>26.014215</v>
       </c>
       <c r="O9">
-        <v>0.03181226511628392</v>
+        <v>0.3735756773139306</v>
       </c>
       <c r="P9">
-        <v>0.03181226511628392</v>
+        <v>0.3735756773139307</v>
       </c>
       <c r="Q9">
-        <v>2.105534225959239</v>
+        <v>53.41129075050167</v>
       </c>
       <c r="R9">
-        <v>2.105534225959239</v>
+        <v>480.701616754515</v>
       </c>
       <c r="S9">
-        <v>0.01859149616443639</v>
+        <v>0.2248953601932296</v>
       </c>
       <c r="T9">
-        <v>0.01859149616443639</v>
+        <v>0.2248953601932296</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>6.159473666666667</v>
+      </c>
+      <c r="H10">
+        <v>18.478421</v>
+      </c>
+      <c r="I10">
+        <v>0.6020075016935351</v>
+      </c>
+      <c r="J10">
+        <v>0.6020075016935351</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>12.91794</v>
+      </c>
+      <c r="N10">
+        <v>38.75382</v>
+      </c>
+      <c r="O10">
+        <v>0.5565220613038737</v>
+      </c>
+      <c r="P10">
+        <v>0.5565220613038738</v>
+      </c>
+      <c r="Q10">
+        <v>79.56771125758002</v>
+      </c>
+      <c r="R10">
+        <v>716.1094013182201</v>
+      </c>
+      <c r="S10">
+        <v>0.3350304557628814</v>
+      </c>
+      <c r="T10">
+        <v>0.3350304557628815</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>6.159473666666667</v>
+      </c>
+      <c r="H11">
+        <v>18.478421</v>
+      </c>
+      <c r="I11">
+        <v>0.6020075016935351</v>
+      </c>
+      <c r="J11">
+        <v>0.6020075016935351</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.5509396666666667</v>
+      </c>
+      <c r="N11">
+        <v>1.652819</v>
+      </c>
+      <c r="O11">
+        <v>0.02373521466637888</v>
+      </c>
+      <c r="P11">
+        <v>0.02373521466637889</v>
+      </c>
+      <c r="Q11">
+        <v>3.393498368755445</v>
+      </c>
+      <c r="R11">
+        <v>30.541485318799</v>
+      </c>
+      <c r="S11">
+        <v>0.0142887772834665</v>
+      </c>
+      <c r="T11">
+        <v>0.01428877728346651</v>
       </c>
     </row>
   </sheetData>
